--- a/Execution Providers Tester/opset_22/NVIDIA - CUDA/training_CUDAExecutionProvider.xlsx
+++ b/Execution Providers Tester/opset_22/NVIDIA - CUDA/training_CUDAExecutionProvider.xlsx
@@ -1450,7 +1450,7 @@
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::21997): A typestr: T, has unsupported type: tensor(bool)</t>
+          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::1130): A typestr: T, has unsupported type: tensor(bool)</t>
         </is>
       </c>
     </row>
@@ -1467,7 +1467,7 @@
       </c>
       <c r="C52" s="3" t="inlineStr">
         <is>
-          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::21999): A typestr: T, has unsupported type: tensor(bool)</t>
+          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::1132): A typestr: T, has unsupported type: tensor(bool)</t>
         </is>
       </c>
     </row>
@@ -1671,7 +1671,7 @@
       </c>
       <c r="C64" s="3" t="inlineStr">
         <is>
-          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::22001): A typestr: T, has unsupported type: tensor(bool)</t>
+          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::1134): A typestr: T, has unsupported type: tensor(bool)</t>
         </is>
       </c>
     </row>
@@ -1688,7 +1688,7 @@
       </c>
       <c r="C65" s="3" t="inlineStr">
         <is>
-          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::22003): A typestr: T, has unsupported type: tensor(bool)</t>
+          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::1136): A typestr: T, has unsupported type: tensor(bool)</t>
         </is>
       </c>
     </row>
@@ -1757,7 +1757,7 @@
       </c>
       <c r="C69" s="3" t="inlineStr">
         <is>
-          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::22021): A typestr: T, has unsupported type: tensor(bool)</t>
+          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::1154): A typestr: T, has unsupported type: tensor(bool)</t>
         </is>
       </c>
     </row>
@@ -1774,7 +1774,7 @@
       </c>
       <c r="C70" s="3" t="inlineStr">
         <is>
-          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::22023): A typestr: T, has unsupported type: tensor(bool)</t>
+          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::1156): A typestr: T, has unsupported type: tensor(bool)</t>
         </is>
       </c>
     </row>
@@ -2322,7 +2322,7 @@
       </c>
       <c r="C102" s="3" t="inlineStr">
         <is>
-          <t>[ShapeInferenceError] (op_type:Pow, node name: onnx::Pow::22101): X typestr: T, has unsupported type: tensor(uint8)</t>
+          <t>[ShapeInferenceError] (op_type:Pow, node name: onnx::Pow::1234): X typestr: T, has unsupported type: tensor(uint8)</t>
         </is>
       </c>
     </row>

--- a/Execution Providers Tester/opset_22/NVIDIA - CUDA/training_CUDAExecutionProvider.xlsx
+++ b/Execution Providers Tester/opset_22/NVIDIA - CUDA/training_CUDAExecutionProvider.xlsx
@@ -1450,7 +1450,7 @@
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::1130): A typestr: T, has unsupported type: tensor(bool)</t>
+          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::23568): A typestr: T, has unsupported type: tensor(bool)</t>
         </is>
       </c>
     </row>
@@ -1467,7 +1467,7 @@
       </c>
       <c r="C52" s="3" t="inlineStr">
         <is>
-          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::1132): A typestr: T, has unsupported type: tensor(bool)</t>
+          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::23570): A typestr: T, has unsupported type: tensor(bool)</t>
         </is>
       </c>
     </row>
@@ -1671,7 +1671,7 @@
       </c>
       <c r="C64" s="3" t="inlineStr">
         <is>
-          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::1134): A typestr: T, has unsupported type: tensor(bool)</t>
+          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::23572): A typestr: T, has unsupported type: tensor(bool)</t>
         </is>
       </c>
     </row>
@@ -1688,7 +1688,7 @@
       </c>
       <c r="C65" s="3" t="inlineStr">
         <is>
-          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::1136): A typestr: T, has unsupported type: tensor(bool)</t>
+          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::23574): A typestr: T, has unsupported type: tensor(bool)</t>
         </is>
       </c>
     </row>
@@ -1757,7 +1757,7 @@
       </c>
       <c r="C69" s="3" t="inlineStr">
         <is>
-          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::1154): A typestr: T, has unsupported type: tensor(bool)</t>
+          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::23592): A typestr: T, has unsupported type: tensor(bool)</t>
         </is>
       </c>
     </row>
@@ -1774,7 +1774,7 @@
       </c>
       <c r="C70" s="3" t="inlineStr">
         <is>
-          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::1156): A typestr: T, has unsupported type: tensor(bool)</t>
+          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::23594): A typestr: T, has unsupported type: tensor(bool)</t>
         </is>
       </c>
     </row>
@@ -2322,7 +2322,7 @@
       </c>
       <c r="C102" s="3" t="inlineStr">
         <is>
-          <t>[ShapeInferenceError] (op_type:Pow, node name: onnx::Pow::1234): X typestr: T, has unsupported type: tensor(uint8)</t>
+          <t>[ShapeInferenceError] (op_type:Pow, node name: onnx::Pow::23672): X typestr: T, has unsupported type: tensor(uint8)</t>
         </is>
       </c>
     </row>

--- a/Execution Providers Tester/opset_22/NVIDIA - CUDA/training_CUDAExecutionProvider.xlsx
+++ b/Execution Providers Tester/opset_22/NVIDIA - CUDA/training_CUDAExecutionProvider.xlsx
@@ -1450,7 +1450,7 @@
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::23568): A typestr: T, has unsupported type: tensor(bool)</t>
+          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::26939): A typestr: T, has unsupported type: tensor(bool)</t>
         </is>
       </c>
     </row>
@@ -1467,7 +1467,7 @@
       </c>
       <c r="C52" s="3" t="inlineStr">
         <is>
-          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::23570): A typestr: T, has unsupported type: tensor(bool)</t>
+          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::26941): A typestr: T, has unsupported type: tensor(bool)</t>
         </is>
       </c>
     </row>
@@ -1671,7 +1671,7 @@
       </c>
       <c r="C64" s="3" t="inlineStr">
         <is>
-          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::23572): A typestr: T, has unsupported type: tensor(bool)</t>
+          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::26943): A typestr: T, has unsupported type: tensor(bool)</t>
         </is>
       </c>
     </row>
@@ -1688,7 +1688,7 @@
       </c>
       <c r="C65" s="3" t="inlineStr">
         <is>
-          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::23574): A typestr: T, has unsupported type: tensor(bool)</t>
+          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::26945): A typestr: T, has unsupported type: tensor(bool)</t>
         </is>
       </c>
     </row>
@@ -1757,7 +1757,7 @@
       </c>
       <c r="C69" s="3" t="inlineStr">
         <is>
-          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::23592): A typestr: T, has unsupported type: tensor(bool)</t>
+          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::26963): A typestr: T, has unsupported type: tensor(bool)</t>
         </is>
       </c>
     </row>
@@ -1774,7 +1774,7 @@
       </c>
       <c r="C70" s="3" t="inlineStr">
         <is>
-          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::23594): A typestr: T, has unsupported type: tensor(bool)</t>
+          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::26965): A typestr: T, has unsupported type: tensor(bool)</t>
         </is>
       </c>
     </row>
@@ -2322,7 +2322,7 @@
       </c>
       <c r="C102" s="3" t="inlineStr">
         <is>
-          <t>[ShapeInferenceError] (op_type:Pow, node name: onnx::Pow::23672): X typestr: T, has unsupported type: tensor(uint8)</t>
+          <t>[ShapeInferenceError] (op_type:Pow, node name: onnx::Pow::27043): X typestr: T, has unsupported type: tensor(uint8)</t>
         </is>
       </c>
     </row>

--- a/Execution Providers Tester/opset_22/NVIDIA - CUDA/training_CUDAExecutionProvider.xlsx
+++ b/Execution Providers Tester/opset_22/NVIDIA - CUDA/training_CUDAExecutionProvider.xlsx
@@ -1450,7 +1450,7 @@
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::26939): A typestr: T, has unsupported type: tensor(bool)</t>
+          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::31881): A typestr: T, has unsupported type: tensor(bool)</t>
         </is>
       </c>
     </row>
@@ -1467,7 +1467,7 @@
       </c>
       <c r="C52" s="3" t="inlineStr">
         <is>
-          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::26941): A typestr: T, has unsupported type: tensor(bool)</t>
+          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::31883): A typestr: T, has unsupported type: tensor(bool)</t>
         </is>
       </c>
     </row>
@@ -1671,7 +1671,7 @@
       </c>
       <c r="C64" s="3" t="inlineStr">
         <is>
-          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::26943): A typestr: T, has unsupported type: tensor(bool)</t>
+          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::31885): A typestr: T, has unsupported type: tensor(bool)</t>
         </is>
       </c>
     </row>
@@ -1688,7 +1688,7 @@
       </c>
       <c r="C65" s="3" t="inlineStr">
         <is>
-          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::26945): A typestr: T, has unsupported type: tensor(bool)</t>
+          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::31887): A typestr: T, has unsupported type: tensor(bool)</t>
         </is>
       </c>
     </row>
@@ -1757,7 +1757,7 @@
       </c>
       <c r="C69" s="3" t="inlineStr">
         <is>
-          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::26963): A typestr: T, has unsupported type: tensor(bool)</t>
+          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::31905): A typestr: T, has unsupported type: tensor(bool)</t>
         </is>
       </c>
     </row>
@@ -1774,7 +1774,7 @@
       </c>
       <c r="C70" s="3" t="inlineStr">
         <is>
-          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::26965): A typestr: T, has unsupported type: tensor(bool)</t>
+          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::31907): A typestr: T, has unsupported type: tensor(bool)</t>
         </is>
       </c>
     </row>
@@ -2322,7 +2322,7 @@
       </c>
       <c r="C102" s="3" t="inlineStr">
         <is>
-          <t>[ShapeInferenceError] (op_type:Pow, node name: onnx::Pow::27043): X typestr: T, has unsupported type: tensor(uint8)</t>
+          <t>[ShapeInferenceError] (op_type:Pow, node name: onnx::Pow::31985): X typestr: T, has unsupported type: tensor(uint8)</t>
         </is>
       </c>
     </row>

--- a/Execution Providers Tester/opset_22/NVIDIA - CUDA/training_CUDAExecutionProvider.xlsx
+++ b/Execution Providers Tester/opset_22/NVIDIA - CUDA/training_CUDAExecutionProvider.xlsx
@@ -1450,7 +1450,7 @@
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::31881): A typestr: T, has unsupported type: tensor(bool)</t>
+          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::1130): A typestr: T, has unsupported type: tensor(bool)</t>
         </is>
       </c>
     </row>
@@ -1467,7 +1467,7 @@
       </c>
       <c r="C52" s="3" t="inlineStr">
         <is>
-          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::31883): A typestr: T, has unsupported type: tensor(bool)</t>
+          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::1132): A typestr: T, has unsupported type: tensor(bool)</t>
         </is>
       </c>
     </row>
@@ -1671,7 +1671,7 @@
       </c>
       <c r="C64" s="3" t="inlineStr">
         <is>
-          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::31885): A typestr: T, has unsupported type: tensor(bool)</t>
+          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::1134): A typestr: T, has unsupported type: tensor(bool)</t>
         </is>
       </c>
     </row>
@@ -1688,7 +1688,7 @@
       </c>
       <c r="C65" s="3" t="inlineStr">
         <is>
-          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::31887): A typestr: T, has unsupported type: tensor(bool)</t>
+          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::1136): A typestr: T, has unsupported type: tensor(bool)</t>
         </is>
       </c>
     </row>
@@ -1757,7 +1757,7 @@
       </c>
       <c r="C69" s="3" t="inlineStr">
         <is>
-          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::31905): A typestr: T, has unsupported type: tensor(bool)</t>
+          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::1154): A typestr: T, has unsupported type: tensor(bool)</t>
         </is>
       </c>
     </row>
@@ -1774,7 +1774,7 @@
       </c>
       <c r="C70" s="3" t="inlineStr">
         <is>
-          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::31907): A typestr: T, has unsupported type: tensor(bool)</t>
+          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::1156): A typestr: T, has unsupported type: tensor(bool)</t>
         </is>
       </c>
     </row>
@@ -2322,7 +2322,7 @@
       </c>
       <c r="C102" s="3" t="inlineStr">
         <is>
-          <t>[ShapeInferenceError] (op_type:Pow, node name: onnx::Pow::31985): X typestr: T, has unsupported type: tensor(uint8)</t>
+          <t>[ShapeInferenceError] (op_type:Pow, node name: onnx::Pow::1234): X typestr: T, has unsupported type: tensor(uint8)</t>
         </is>
       </c>
     </row>
